--- a/biology/Médecine/Lucien-Marie_Pautrier/Lucien-Marie_Pautrier.xlsx
+++ b/biology/Médecine/Lucien-Marie_Pautrier/Lucien-Marie_Pautrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucien-Marie Pautrier, né le 3 août 1876 à Aubagne (Bouches-du-Rhône) et mort à 9 juillet 1959 à Strasbourg, est un médecin et dermatologue français, fondateur de l'école de dermatologie de Strasbourg.
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lucien Marie Pautrier est le fil de Denis Émile Joachim Pautrier et de Antoinette Béatrix Françoise Marthe Mouriés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucien Marie Pautrier est le fil de Denis Émile Joachim Pautrier et de Antoinette Béatrix Françoise Marthe Mouriés.
 Il commence ses études médicales à Marseille avant de rapidement rejoindre Paris. Très tôt, il s'intéresse à la dermatologie  et soutient sa thèse en 1903 intitulée Les tuberculoses cutanées atypiques. Il devient l'assistant d'Émile Leredde (1866-1926) puis le collaborateur de Louis Brocq à l'Hôpital Saint-Louis. 
-Il est incorporé, en 1898 au sein du 12e régiment d'artillerie et participe à la campagne d'Algérie. Il est libéré après la campagne. Il est affecté à la réserve en 1900[2].   
-Pendant la Première Guerre mondiale, à la mobilisation générale du 1er août 1914, il est affecté à l'hôpital de Châlons-en-Champagne, puis en 1915 à celui de Bourges où il crée le centre de lutte antivénérienne[2]. 
+Il est incorporé, en 1898 au sein du 12e régiment d'artillerie et participe à la campagne d'Algérie. Il est libéré après la campagne. Il est affecté à la réserve en 1900.   
+Pendant la Première Guerre mondiale, à la mobilisation générale du 1er août 1914, il est affecté à l'hôpital de Châlons-en-Champagne, puis en 1915 à celui de Bourges où il crée le centre de lutte antivénérienne. 
 Après la Grande Guerre, en 1919, il est appelé à Strasbourg par Georges Weiss. Il fonde  la « Ligue antivénérienne d'Alsace et de Lorraine » et fait construire un nouveau bâtiment inauguré en 1930 : le « dermato-palace ».
-Pendant la Seconde Guerre mondiale, il suit les Hospices civils de Strasbourg évacués à la cité sanitaire de Clairvivre. Au retour des Hospices en Alsace, il reste à Clairvivre au sein de l'hôpital des réfugiés de la Dordogne où il continue de diriger le service de dermatologie[1].
+Pendant la Seconde Guerre mondiale, il suit les Hospices civils de Strasbourg évacués à la cité sanitaire de Clairvivre. Au retour des Hospices en Alsace, il reste à Clairvivre au sein de l'hôpital des réfugiés de la Dordogne où il continue de diriger le service de dermatologie.
 De 1942 à 1945, il occupe la chaire de dermatologie de l'Université de Lausanne. De retour à Strasbourg, il fonde un laboratoire de chirurgie expérimentale : le « Laboratoire Poincaré ».
-Il est élu membre correspondant non-résidant de l'Académie nationale de médecine (7 février 1939)[3] et nommé Grand Officier de la Légion d'honneur (15 février 1958)[4] Il est le membre fondateur de la « Société des amis de la musique » et du Festival de musique de Strasbourg en 1932.
-Le 4 juin 1902, à Paris, il épouse en premières noces, la femme peintre symboliste Jeanne Jacquemin, née Boyer, et en secondes noces Marie Villedieu[1],[5].
+Il est élu membre correspondant non-résidant de l'Académie nationale de médecine (7 février 1939) et nommé Grand Officier de la Légion d'honneur (15 février 1958) Il est le membre fondateur de la « Société des amis de la musique » et du Festival de musique de Strasbourg en 1932.
+Le 4 juin 1902, à Paris, il épouse en premières noces, la femme peintre symboliste Jeanne Jacquemin, née Boyer, et en secondes noces Marie Villedieu,.
 </t>
         </is>
       </c>
@@ -550,13 +564,15 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Croix de guerre 1914-1918 (1914) [1];
- Chevalier de la Légion d'honneur (1916) [1];
- Officier de la Légion d'honneur(1924) [1];
- Commandeur de la Légion d'honneur (1939) [1];
- Grand officier de la Légion d'honneur (15 février 1958)[4] ;</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Croix de guerre 1914-1918 (1914) ;
+ Chevalier de la Légion d'honneur (1916) ;
+ Officier de la Légion d'honneur(1924) ;
+ Commandeur de la Légion d'honneur (1939) ;
+ Grand officier de la Légion d'honneur (15 février 1958) ;</t>
         </is>
       </c>
     </row>
@@ -584,7 +600,9 @@
           <t>Reconnaissance[1]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Professeur de clinique à la faculté de médecine de Strasbourg ;
 Inspecteur régional et médecin consultant du ministère de la Santé Publique ;
@@ -621,11 +639,13 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Syndrome (ou glossite) de Brocq-Pautrier[6]
-Abcès de Pautrier[7]
-Syndrome de Pautrier et Woringer[8]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Syndrome (ou glossite) de Brocq-Pautrier
+Abcès de Pautrier
+Syndrome de Pautrier et Woringer</t>
         </is>
       </c>
     </row>
@@ -653,7 +673,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Besnier-Boeck, ses manifestations cutanées, ganglionnaires, pulmonaires, osseuses, viscérales, nasales et conjonctivales, 1935.
 En collaboration
